--- a/database/industries/nasaji/netrin/cost/yearly.xlsx
+++ b/database/industries/nasaji/netrin/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5898BFCB-844C-43C2-9D88-A0C068BB9ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E88EB9-8463-43D5-AD80-176C09A190D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -632,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +647,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,7 +681,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,7 +715,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -769,7 +769,7 @@
         <v>874505</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>134365</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -813,7 +813,7 @@
         <v>188889</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1197759</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1197759</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -901,7 +901,7 @@
         <v>-7948</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1189811</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -967,7 +967,7 @@
         <v>15334</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -989,7 +989,7 @@
         <v>-65597</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1139548</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1139548</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1065,7 +1065,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1075,7 +1075,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1085,7 +1085,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1193,7 +1193,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1225,7 +1225,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1281,7 +1281,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1301,7 +1301,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1389,7 +1389,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1441,7 +1441,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>74853</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>74853</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1605,7 +1605,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1615,7 +1615,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1625,7 +1625,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1657,7 +1657,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1061244</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1061244</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1723,7 +1723,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1765,7 +1765,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>874505</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>874505</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1831,7 +1831,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>261592</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>261592</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1929,7 +1929,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1939,7 +1939,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1949,7 +1949,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>35</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>180804348</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>37</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2067,7 +2067,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>379557940</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2111,7 +2111,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2121,7 +2121,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2153,7 +2153,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>335316334</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2187,7 +2187,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2197,7 +2197,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2207,7 +2207,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>434538206</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2283,7 +2283,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>40</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2325,7 +2325,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>45</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>48</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>14929</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>50</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>120110</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>

--- a/database/industries/nasaji/netrin/cost/yearly.xlsx
+++ b/database/industries/nasaji/netrin/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E88EB9-8463-43D5-AD80-176C09A190D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D626B-7C7F-4865-A781-3131DB5DF97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -632,12 +629,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +644,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +656,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +668,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,7 +678,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +690,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +702,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,7 +712,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -737,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -747,95 +744,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>372888</v>
+        <v>594641</v>
       </c>
       <c r="F10" s="9">
-        <v>594641</v>
+        <v>765103</v>
       </c>
       <c r="G10" s="9">
-        <v>765103</v>
+        <v>569302</v>
       </c>
       <c r="H10" s="9">
-        <v>569302</v>
+        <v>874505</v>
       </c>
       <c r="I10" s="9">
-        <v>874505</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1786511</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>11720</v>
+        <v>14599</v>
       </c>
       <c r="F11" s="11">
-        <v>14599</v>
+        <v>22892</v>
       </c>
       <c r="G11" s="11">
-        <v>22892</v>
+        <v>61453</v>
       </c>
       <c r="H11" s="11">
-        <v>61453</v>
+        <v>134365</v>
       </c>
       <c r="I11" s="11">
-        <v>134365</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>296835</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>38248</v>
+        <v>46288</v>
       </c>
       <c r="F12" s="9">
-        <v>46288</v>
+        <v>88259</v>
       </c>
       <c r="G12" s="9">
-        <v>88259</v>
+        <v>131461</v>
       </c>
       <c r="H12" s="9">
-        <v>131461</v>
+        <v>188889</v>
       </c>
       <c r="I12" s="9">
-        <v>188889</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360710</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>422856</v>
+        <v>655528</v>
       </c>
       <c r="F13" s="13">
-        <v>655528</v>
+        <v>876254</v>
       </c>
       <c r="G13" s="13">
-        <v>876254</v>
+        <v>762216</v>
       </c>
       <c r="H13" s="13">
-        <v>762216</v>
+        <v>1197759</v>
       </c>
       <c r="I13" s="13">
-        <v>1197759</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2444056</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -857,51 +854,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>422856</v>
+        <v>655528</v>
       </c>
       <c r="F15" s="13">
-        <v>655528</v>
+        <v>876254</v>
       </c>
       <c r="G15" s="13">
-        <v>876254</v>
+        <v>762216</v>
       </c>
       <c r="H15" s="13">
-        <v>762216</v>
+        <v>1197759</v>
       </c>
       <c r="I15" s="13">
-        <v>1197759</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2444056</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>-2660</v>
       </c>
       <c r="F16" s="9">
-        <v>-2660</v>
+        <v>2157</v>
       </c>
       <c r="G16" s="9">
-        <v>2157</v>
+        <v>-3425</v>
       </c>
       <c r="H16" s="9">
-        <v>-3425</v>
+        <v>-7948</v>
       </c>
       <c r="I16" s="9">
-        <v>-7948</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5863</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -923,95 +920,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>422856</v>
+        <v>652868</v>
       </c>
       <c r="F18" s="15">
-        <v>652868</v>
+        <v>878411</v>
       </c>
       <c r="G18" s="15">
-        <v>878411</v>
+        <v>758791</v>
       </c>
       <c r="H18" s="15">
-        <v>758791</v>
+        <v>1189811</v>
       </c>
       <c r="I18" s="15">
-        <v>1189811</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2438193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>3302</v>
+        <v>5394</v>
       </c>
       <c r="F19" s="11">
-        <v>5394</v>
+        <v>3972</v>
       </c>
       <c r="G19" s="11">
-        <v>3972</v>
+        <v>3996</v>
       </c>
       <c r="H19" s="11">
-        <v>3996</v>
+        <v>15334</v>
       </c>
       <c r="I19" s="11">
-        <v>15334</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65597</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-5394</v>
+        <v>-3972</v>
       </c>
       <c r="F20" s="9">
-        <v>-3972</v>
+        <v>-3996</v>
       </c>
       <c r="G20" s="9">
-        <v>-3996</v>
+        <v>-15334</v>
       </c>
       <c r="H20" s="9">
-        <v>-15334</v>
+        <v>-65597</v>
       </c>
       <c r="I20" s="9">
-        <v>-65597</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-116052</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>420764</v>
+        <v>654290</v>
       </c>
       <c r="F21" s="13">
-        <v>654290</v>
+        <v>878387</v>
       </c>
       <c r="G21" s="13">
-        <v>878387</v>
+        <v>747453</v>
       </c>
       <c r="H21" s="13">
-        <v>747453</v>
+        <v>1139548</v>
       </c>
       <c r="I21" s="13">
-        <v>1139548</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2387738</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1033,29 +1030,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>420764</v>
+        <v>654290</v>
       </c>
       <c r="F23" s="13">
-        <v>654290</v>
+        <v>878387</v>
       </c>
       <c r="G23" s="13">
-        <v>878387</v>
+        <v>747453</v>
       </c>
       <c r="H23" s="13">
-        <v>747453</v>
+        <v>1139548</v>
       </c>
       <c r="I23" s="13">
-        <v>1139548</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2387738</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1065,7 +1062,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1075,7 +1072,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1085,7 +1082,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1117,7 +1114,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1125,45 +1122,45 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>999</v>
       </c>
       <c r="F29" s="9">
-        <v>999</v>
+        <v>1322</v>
       </c>
       <c r="G29" s="9">
-        <v>1322</v>
+        <v>857</v>
       </c>
       <c r="H29" s="9">
-        <v>857</v>
+        <v>414</v>
       </c>
       <c r="I29" s="9">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F30" s="13">
-        <v>999</v>
+        <v>1322</v>
       </c>
       <c r="G30" s="13">
-        <v>1322</v>
+        <v>857</v>
       </c>
       <c r="H30" s="13">
-        <v>857</v>
+        <v>414</v>
       </c>
       <c r="I30" s="13">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1173,7 +1170,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1183,7 +1180,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1193,9 +1190,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1215,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1225,7 +1222,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1233,45 +1230,45 @@
         <v>25</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>26</v>
+      <c r="E36" s="9">
+        <v>7007</v>
       </c>
       <c r="F36" s="9">
-        <v>7007</v>
+        <v>3510</v>
       </c>
       <c r="G36" s="9">
-        <v>3510</v>
+        <v>2396</v>
       </c>
       <c r="H36" s="9">
-        <v>2396</v>
+        <v>2796</v>
       </c>
       <c r="I36" s="9">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>0</v>
+        <v>7007</v>
       </c>
       <c r="F37" s="13">
-        <v>7007</v>
+        <v>3510</v>
       </c>
       <c r="G37" s="13">
-        <v>3510</v>
+        <v>2396</v>
       </c>
       <c r="H37" s="13">
-        <v>2396</v>
+        <v>2796</v>
       </c>
       <c r="I37" s="13">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1281,7 +1278,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1291,7 +1288,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1301,9 +1298,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1323,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1333,7 +1330,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1341,45 +1338,45 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>26</v>
+      <c r="E43" s="9">
+        <v>6664</v>
       </c>
       <c r="F43" s="9">
-        <v>6664</v>
+        <v>3975</v>
       </c>
       <c r="G43" s="9">
-        <v>3975</v>
+        <v>2839</v>
       </c>
       <c r="H43" s="9">
-        <v>2839</v>
+        <v>2608</v>
       </c>
       <c r="I43" s="9">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>6664</v>
       </c>
       <c r="F44" s="13">
-        <v>6664</v>
+        <v>3975</v>
       </c>
       <c r="G44" s="13">
-        <v>3975</v>
+        <v>2839</v>
       </c>
       <c r="H44" s="13">
-        <v>2839</v>
+        <v>2608</v>
       </c>
       <c r="I44" s="13">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1389,7 +1386,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1399,7 +1396,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1409,9 +1406,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1431,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1441,7 +1438,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1449,45 +1446,45 @@
         <v>25</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>26</v>
+      <c r="E50" s="9">
+        <v>1342</v>
       </c>
       <c r="F50" s="9">
-        <v>1342</v>
+        <v>857</v>
       </c>
       <c r="G50" s="9">
-        <v>857</v>
+        <v>414</v>
       </c>
       <c r="H50" s="9">
-        <v>414</v>
+        <v>602</v>
       </c>
       <c r="I50" s="9">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="F51" s="13">
-        <v>1342</v>
+        <v>857</v>
       </c>
       <c r="G51" s="13">
-        <v>857</v>
+        <v>414</v>
       </c>
       <c r="H51" s="13">
-        <v>414</v>
+        <v>602</v>
       </c>
       <c r="I51" s="13">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1497,7 +1494,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1507,7 +1504,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1517,9 +1514,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1539,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1549,53 +1546,53 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>77505</v>
       </c>
       <c r="F57" s="9">
-        <v>77505</v>
+        <v>158606</v>
       </c>
       <c r="G57" s="9">
-        <v>158606</v>
+        <v>153675</v>
       </c>
       <c r="H57" s="9">
-        <v>153675</v>
+        <v>74853</v>
       </c>
       <c r="I57" s="9">
-        <v>74853</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261592</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>77505</v>
       </c>
       <c r="F58" s="13">
-        <v>77505</v>
+        <v>158606</v>
       </c>
       <c r="G58" s="13">
-        <v>158606</v>
+        <v>153675</v>
       </c>
       <c r="H58" s="13">
-        <v>153675</v>
+        <v>74853</v>
       </c>
       <c r="I58" s="13">
-        <v>74853</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261592</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1605,7 +1602,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1615,7 +1612,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1625,9 +1622,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1647,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1657,53 +1654,53 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>675742</v>
       </c>
       <c r="F64" s="9">
-        <v>675742</v>
+        <v>760172</v>
       </c>
       <c r="G64" s="9">
-        <v>760172</v>
+        <v>490480</v>
       </c>
       <c r="H64" s="9">
-        <v>490480</v>
+        <v>1061244</v>
       </c>
       <c r="I64" s="9">
-        <v>1061244</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1756133</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>675742</v>
       </c>
       <c r="F65" s="13">
-        <v>675742</v>
+        <v>760172</v>
       </c>
       <c r="G65" s="13">
-        <v>760172</v>
+        <v>490480</v>
       </c>
       <c r="H65" s="13">
-        <v>490480</v>
+        <v>1061244</v>
       </c>
       <c r="I65" s="13">
-        <v>1061244</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1756133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1713,7 +1710,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1723,7 +1720,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1733,9 +1730,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1755,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1765,53 +1762,53 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>594641</v>
       </c>
       <c r="F71" s="9">
-        <v>594641</v>
+        <v>765103</v>
       </c>
       <c r="G71" s="9">
-        <v>765103</v>
+        <v>569302</v>
       </c>
       <c r="H71" s="9">
-        <v>569302</v>
+        <v>874505</v>
       </c>
       <c r="I71" s="9">
-        <v>874505</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1786511</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>0</v>
+        <v>594641</v>
       </c>
       <c r="F72" s="13">
-        <v>594641</v>
+        <v>765103</v>
       </c>
       <c r="G72" s="13">
-        <v>765103</v>
+        <v>569302</v>
       </c>
       <c r="H72" s="13">
-        <v>569302</v>
+        <v>874505</v>
       </c>
       <c r="I72" s="13">
-        <v>874505</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1786511</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1821,7 +1818,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1831,7 +1828,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1841,9 +1838,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1863,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1873,53 +1870,53 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>26</v>
+      <c r="E78" s="9">
+        <v>158606</v>
       </c>
       <c r="F78" s="9">
-        <v>158606</v>
+        <v>153675</v>
       </c>
       <c r="G78" s="9">
-        <v>153675</v>
+        <v>74853</v>
       </c>
       <c r="H78" s="9">
-        <v>74853</v>
+        <v>261592</v>
       </c>
       <c r="I78" s="9">
-        <v>261592</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>0</v>
+        <v>158606</v>
       </c>
       <c r="F79" s="13">
-        <v>158606</v>
+        <v>153675</v>
       </c>
       <c r="G79" s="13">
-        <v>153675</v>
+        <v>74853</v>
       </c>
       <c r="H79" s="13">
-        <v>74853</v>
+        <v>261592</v>
       </c>
       <c r="I79" s="13">
-        <v>261592</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1929,7 +1926,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1939,7 +1936,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1949,9 +1946,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1971,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1981,31 +1978,31 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>77582583</v>
       </c>
       <c r="F85" s="9">
-        <v>77582583</v>
+        <v>119974281</v>
       </c>
       <c r="G85" s="9">
-        <v>119974281</v>
+        <v>179317386</v>
       </c>
       <c r="H85" s="9">
-        <v>179317386</v>
+        <v>180804348</v>
       </c>
       <c r="I85" s="9">
-        <v>180804348</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>434538206</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2015,7 +2012,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2025,7 +2022,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2035,9 +2032,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2057,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2067,31 +2064,31 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>96438133</v>
       </c>
       <c r="F91" s="9">
-        <v>96438133</v>
+        <v>216573219</v>
       </c>
       <c r="G91" s="9">
-        <v>216573219</v>
+        <v>204707846</v>
       </c>
       <c r="H91" s="9">
-        <v>204707846</v>
+        <v>379557940</v>
       </c>
       <c r="I91" s="9">
-        <v>379557940</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>494824739</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2101,7 +2098,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2111,7 +2108,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2121,9 +2118,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2143,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2153,31 +2150,31 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
+      <c r="E97" s="9">
+        <v>89231843</v>
       </c>
       <c r="F97" s="9">
-        <v>89231843</v>
+        <v>192478742</v>
       </c>
       <c r="G97" s="9">
-        <v>192478742</v>
+        <v>200529060</v>
       </c>
       <c r="H97" s="9">
-        <v>200529060</v>
+        <v>335316334</v>
       </c>
       <c r="I97" s="9">
-        <v>335316334</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487717991</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2187,7 +2184,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2197,7 +2194,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2207,9 +2204,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2229,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2239,7 +2236,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2247,23 +2244,23 @@
         <v>25</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+      <c r="E103" s="9">
+        <v>118186289</v>
       </c>
       <c r="F103" s="9">
-        <v>118186289</v>
+        <v>179317386</v>
       </c>
       <c r="G103" s="9">
-        <v>179317386</v>
+        <v>180804348</v>
       </c>
       <c r="H103" s="9">
-        <v>180804348</v>
+        <v>434538206</v>
       </c>
       <c r="I103" s="9">
-        <v>434538206</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>473799180</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2273,7 +2270,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2283,7 +2280,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2293,9 +2290,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2315,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2325,31 +2322,31 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>575</v>
+        <v>1024</v>
       </c>
       <c r="F109" s="9">
-        <v>1024</v>
+        <v>2378</v>
       </c>
       <c r="G109" s="9">
-        <v>2378</v>
+        <v>2502</v>
       </c>
       <c r="H109" s="9">
-        <v>2502</v>
+        <v>4339</v>
       </c>
       <c r="I109" s="9">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2369,9 +2366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2391,9 +2388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2413,9 +2410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2435,75 +2432,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>5828</v>
+        <v>7270</v>
       </c>
       <c r="F114" s="11">
-        <v>7270</v>
+        <v>6857</v>
       </c>
       <c r="G114" s="11">
-        <v>6857</v>
+        <v>8478</v>
       </c>
       <c r="H114" s="11">
-        <v>8478</v>
+        <v>7861</v>
       </c>
       <c r="I114" s="11">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23039</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>16187</v>
+        <v>15726</v>
       </c>
       <c r="F115" s="9">
-        <v>15726</v>
+        <v>16427</v>
       </c>
       <c r="G115" s="9">
-        <v>16427</v>
+        <v>27906</v>
       </c>
       <c r="H115" s="9">
-        <v>27906</v>
+        <v>41650</v>
       </c>
       <c r="I115" s="9">
-        <v>41650</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82909</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>650</v>
+        <v>811</v>
       </c>
       <c r="F116" s="11">
-        <v>811</v>
+        <v>2642</v>
       </c>
       <c r="G116" s="11">
-        <v>2642</v>
+        <v>6828</v>
       </c>
       <c r="H116" s="11">
-        <v>6828</v>
+        <v>14929</v>
       </c>
       <c r="I116" s="11">
-        <v>14929</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32982</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2523,48 +2520,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>15008</v>
+        <v>21457</v>
       </c>
       <c r="F118" s="11">
-        <v>21457</v>
+        <v>59955</v>
       </c>
       <c r="G118" s="11">
-        <v>59955</v>
+        <v>85747</v>
       </c>
       <c r="H118" s="11">
-        <v>85747</v>
+        <v>120110</v>
       </c>
       <c r="I118" s="11">
-        <v>120110</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215222</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>38248</v>
+        <v>46288</v>
       </c>
       <c r="F119" s="15">
-        <v>46288</v>
+        <v>88259</v>
       </c>
       <c r="G119" s="15">
-        <v>88259</v>
+        <v>131461</v>
       </c>
       <c r="H119" s="15">
-        <v>131461</v>
+        <v>188889</v>
       </c>
       <c r="I119" s="15">
-        <v>188889</v>
+        <v>360710</v>
       </c>
     </row>
   </sheetData>
